--- a/Infraestructura/Redes Agua Potable y Alcantarillado/COBERTURA DE AGUA POTABLE Y ALCANTARILLADO EN TERRITORIOS URBANOS Y CONCESIONADOS (hasta 2017).xlsx
+++ b/Infraestructura/Redes Agua Potable y Alcantarillado/COBERTURA DE AGUA POTABLE Y ALCANTARILLADO EN TERRITORIOS URBANOS Y CONCESIONADOS (hasta 2017).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuario\rfarias\Archivos\2019\08. Series de Datos\Series\Publicación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Infraestructura\Redes Agua Potable y Alcantarillado\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A52E948-DDC1-403D-94CA-42AEBB0C0CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11025" tabRatio="861"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="861" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PoblaciónUrbanaTO" sheetId="14" r:id="rId1"/>
@@ -124,7 +125,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -252,22 +253,22 @@
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -279,7 +280,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -309,17 +310,19 @@
     <xf numFmtId="3" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{52FD2CDA-3C6D-4EA7-88FA-48DD8C03D137}"/>
+  </tableStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -400,9 +403,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -440,9 +443,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -477,7 +480,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -512,7 +515,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -685,7 +688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -693,26 +696,26 @@
       <selection activeCell="H7" sqref="H7"/>
       <selection pane="topRight" activeCell="H7" sqref="H7"/>
       <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="1" customWidth="1"/>
-    <col min="2" max="9" width="14.28515625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="22.88671875" style="1" customWidth="1"/>
+    <col min="2" max="9" width="14.33203125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
@@ -727,7 +730,7 @@
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="5">
         <v>2010</v>
@@ -754,7 +757,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
@@ -783,7 +786,7 @@
         <v>294746.73890000011</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
@@ -812,7 +815,7 @@
         <v>195519.264039</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -841,7 +844,7 @@
         <v>531884.16038847074</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
@@ -870,7 +873,7 @@
         <v>229717.13370204641</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>6</v>
       </c>
@@ -899,7 +902,7 @@
         <v>548543.49992478627</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
@@ -928,7 +931,7 @@
         <v>1460997.0145397189</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>8</v>
       </c>
@@ -957,7 +960,7 @@
         <v>6641603.6177342432</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>9</v>
       </c>
@@ -986,7 +989,7 @@
         <v>552477.96242290782</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
@@ -1015,7 +1018,7 @@
         <v>575975.06606732449</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
@@ -1044,7 +1047,7 @@
         <v>1522716.0559238286</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
@@ -1073,7 +1076,7 @@
         <v>529283.35722857458</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
@@ -1102,7 +1105,7 @@
         <v>225232.61754700003</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>14</v>
       </c>
@@ -1131,7 +1134,7 @@
         <v>509652.81846817094</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>15</v>
       </c>
@@ -1160,7 +1163,7 @@
         <v>74873.080084999994</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>16</v>
       </c>
@@ -1189,7 +1192,7 @@
         <v>139407.818332</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>0</v>
       </c>
@@ -1218,7 +1221,7 @@
         <v>14032630.205303071</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
@@ -1231,7 +1234,7 @@
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>29</v>
       </c>
@@ -1244,7 +1247,7 @@
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
@@ -1272,7 +1275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -1282,23 +1285,23 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="1" customWidth="1"/>
-    <col min="2" max="9" width="14.28515625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="22.88671875" style="1" customWidth="1"/>
+    <col min="2" max="9" width="14.33203125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
@@ -1313,7 +1316,7 @@
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="5">
         <v>2010</v>
@@ -1340,7 +1343,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
@@ -1369,7 +1372,7 @@
         <v>93987</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
@@ -1398,7 +1401,7 @@
         <v>60402</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -1427,7 +1430,7 @@
         <v>168524</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
@@ -1456,7 +1459,7 @@
         <v>85756</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>6</v>
       </c>
@@ -1485,7 +1488,7 @@
         <v>217982</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
@@ -1514,7 +1517,7 @@
         <v>606552</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>8</v>
       </c>
@@ -1543,7 +1546,7 @@
         <v>2172543</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>9</v>
       </c>
@@ -1572,7 +1575,7 @@
         <v>226028</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
@@ -1601,7 +1604,7 @@
         <v>241382</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
@@ -1630,7 +1633,7 @@
         <v>558685</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
@@ -1659,7 +1662,7 @@
         <v>203868</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
@@ -1688,7 +1691,7 @@
         <v>76790</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>14</v>
       </c>
@@ -1717,7 +1720,7 @@
         <v>180102</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>15</v>
       </c>
@@ -1746,7 +1749,7 @@
         <v>25504</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>16</v>
       </c>
@@ -1775,7 +1778,7 @@
         <v>48832</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>0</v>
       </c>
@@ -1816,7 +1819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:I25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -1826,23 +1829,23 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="3" customWidth="1"/>
-    <col min="2" max="9" width="14.28515625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="22.88671875" style="3" customWidth="1"/>
+    <col min="2" max="9" width="14.33203125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
@@ -1857,7 +1860,7 @@
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="5">
         <v>2010</v>
@@ -1884,7 +1887,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
@@ -1913,7 +1916,7 @@
         <v>93922</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
@@ -1942,7 +1945,7 @@
         <v>60398</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -1971,7 +1974,7 @@
         <v>168524</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
@@ -2000,7 +2003,7 @@
         <v>85549</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>6</v>
       </c>
@@ -2029,7 +2032,7 @@
         <v>217982</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
@@ -2058,7 +2061,7 @@
         <v>605958</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>8</v>
       </c>
@@ -2087,7 +2090,7 @@
         <v>2172514</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>9</v>
       </c>
@@ -2116,7 +2119,7 @@
         <v>226004</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
@@ -2145,7 +2148,7 @@
         <v>241287</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
@@ -2174,7 +2177,7 @@
         <v>558657</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
@@ -2203,7 +2206,7 @@
         <v>203538</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
@@ -2232,7 +2235,7 @@
         <v>76787</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>14</v>
       </c>
@@ -2261,7 +2264,7 @@
         <v>180095</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>15</v>
       </c>
@@ -2290,7 +2293,7 @@
         <v>25504</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>16</v>
       </c>
@@ -2319,7 +2322,7 @@
         <v>48832</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>0</v>
       </c>
@@ -2348,13 +2351,13 @@
         <v>4965551</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
     </row>
   </sheetData>
@@ -2369,7 +2372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:I25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -2379,23 +2382,23 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="3" customWidth="1"/>
-    <col min="2" max="9" width="14.28515625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="22.88671875" style="3" customWidth="1"/>
+    <col min="2" max="9" width="14.33203125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
@@ -2410,7 +2413,7 @@
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="5">
         <v>2010</v>
@@ -2437,7 +2440,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
@@ -2466,7 +2469,7 @@
         <v>294534.59361451218</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
@@ -2495,7 +2498,7 @@
         <v>195506.31617210558</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -2524,7 +2527,7 @@
         <v>531884.16038847074</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
@@ -2553,7 +2556,7 @@
         <v>229147.66365592013</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>6</v>
       </c>
@@ -2582,7 +2585,7 @@
         <v>548543.49992478627</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
@@ -2611,7 +2614,7 @@
         <v>1459561.822493904</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>8</v>
       </c>
@@ -2640,7 +2643,7 @@
         <v>6641508.8666696222</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>9</v>
       </c>
@@ -2669,7 +2672,7 @@
         <v>552424.6459649204</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
@@ -2698,7 +2701,7 @@
         <v>575733.20183475316</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
@@ -2727,7 +2730,7 @@
         <v>1522638.1955238741</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
@@ -2756,7 +2759,7 @@
         <v>528437.24236590555</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
@@ -2785,7 +2788,7 @@
         <v>225223.48533663136</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>14</v>
       </c>
@@ -2814,7 +2817,7 @@
         <v>509634.58896013082</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>15</v>
       </c>
@@ -2843,7 +2846,7 @@
         <v>74873.080084999994</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>16</v>
       </c>
@@ -2872,7 +2875,7 @@
         <v>139407.818332</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>0</v>
       </c>
@@ -2901,7 +2904,7 @@
         <v>14029059.181322539</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
@@ -2914,7 +2917,7 @@
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>29</v>
       </c>
@@ -2927,7 +2930,7 @@
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
@@ -2955,7 +2958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A2:I24"/>
   <sheetViews>
@@ -2966,24 +2969,24 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="3" customWidth="1"/>
-    <col min="2" max="9" width="14.28515625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="22.88671875" style="3" customWidth="1"/>
+    <col min="2" max="9" width="14.33203125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
@@ -2998,7 +3001,7 @@
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="5">
         <v>2010</v>
@@ -3025,7 +3028,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
@@ -3054,7 +3057,7 @@
         <v>0.99928024552102035</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
@@ -3083,7 +3086,7 @@
         <v>0.99993377702725073</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -3112,7 +3115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
@@ -3141,7 +3144,7 @@
         <v>0.99752099446415299</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>6</v>
       </c>
@@ -3170,7 +3173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
@@ -3199,7 +3202,7 @@
         <v>0.99901766257457614</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>8</v>
       </c>
@@ -3228,7 +3231,7 @@
         <v>0.99998573370678612</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>9</v>
       </c>
@@ -3257,7 +3260,7 @@
         <v>0.9999034957742865</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
@@ -3286,7 +3289,7 @@
         <v>0.99958007864086418</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
@@ -3315,7 +3318,7 @@
         <v>0.99994886742038902</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
@@ -3344,7 +3347,7 @@
         <v>0.99840139529967564</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
@@ -3373,7 +3376,7 @@
         <v>0.99995945431674982</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>14</v>
       </c>
@@ -3402,7 +3405,7 @@
         <v>0.99996423151726122</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>15</v>
       </c>
@@ -3431,7 +3434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>16</v>
       </c>
@@ -3460,7 +3463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>0</v>
       </c>
@@ -3489,10 +3492,10 @@
         <v>0.99974551998247752</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
     </row>
   </sheetData>
@@ -3508,7 +3511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:I25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3518,23 +3521,23 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="3" customWidth="1"/>
-    <col min="2" max="9" width="14.28515625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="22.88671875" style="3" customWidth="1"/>
+    <col min="2" max="9" width="14.33203125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
@@ -3549,7 +3552,7 @@
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="5">
         <v>2010</v>
@@ -3576,7 +3579,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
@@ -3605,7 +3608,7 @@
         <v>90721</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
@@ -3634,7 +3637,7 @@
         <v>60204</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -3663,7 +3666,7 @@
         <v>168286</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
@@ -3692,7 +3695,7 @@
         <v>83485</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>6</v>
       </c>
@@ -3721,7 +3724,7 @@
         <v>210521</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
@@ -3750,7 +3753,7 @@
         <v>553459</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>8</v>
       </c>
@@ -3779,7 +3782,7 @@
         <v>2146732</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>9</v>
       </c>
@@ -3808,7 +3811,7 @@
         <v>198858</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
@@ -3837,7 +3840,7 @@
         <v>232719</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
@@ -3866,7 +3869,7 @@
         <v>532883</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
@@ -3895,7 +3898,7 @@
         <v>193537</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
@@ -3924,7 +3927,7 @@
         <v>72382</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>14</v>
       </c>
@@ -3953,7 +3956,7 @@
         <v>172858</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>15</v>
       </c>
@@ -3982,7 +3985,7 @@
         <v>24568</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>16</v>
       </c>
@@ -4011,7 +4014,7 @@
         <v>48232</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>0</v>
       </c>
@@ -4040,13 +4043,13 @@
         <v>4789445</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
     </row>
   </sheetData>
@@ -4061,35 +4064,35 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A2:I53"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="3" customWidth="1"/>
-    <col min="2" max="9" width="14.28515625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="22.88671875" style="3" customWidth="1"/>
+    <col min="2" max="9" width="14.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="23.109375" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
@@ -4104,7 +4107,7 @@
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="5">
         <v>2010</v>
@@ -4131,7 +4134,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
@@ -4160,7 +4163,7 @@
         <v>289246.44126156287</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
@@ -4189,7 +4192,7 @@
         <v>194878.34462772682</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -4218,7 +4221,7 @@
         <v>531116.09124546521</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
@@ -4247,7 +4250,7 @@
         <v>224080.98695660342</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>6</v>
       </c>
@@ -4276,7 +4279,7 @@
         <v>533773.05970855651</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
@@ -4305,7 +4308,7 @@
         <v>1369505.669960317</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>8</v>
       </c>
@@ -4334,7 +4337,7 @@
         <v>6561068.9231688268</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>9</v>
       </c>
@@ -4363,7 +4366,7 @@
         <v>492615.69665403373</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
@@ -4392,7 +4395,7 @@
         <v>559688.9855471917</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
@@ -4421,7 +4424,7 @@
         <v>1455754.1273454505</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
@@ -4450,7 +4453,7 @@
         <v>507670.6150118268</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
@@ -4479,7 +4482,7 @@
         <v>212694.444273884</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>14</v>
       </c>
@@ -4508,7 +4511,7 @@
         <v>490167.45417720219</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>15</v>
       </c>
@@ -4537,7 +4540,7 @@
         <v>72334.040317792664</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>16</v>
       </c>
@@ -4566,7 +4569,7 @@
         <v>137689.04141594551</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>0</v>
       </c>
@@ -4595,7 +4598,7 @@
         <v>13632283.921672383</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
@@ -4608,7 +4611,7 @@
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>29</v>
       </c>
@@ -4621,7 +4624,7 @@
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
@@ -4634,13 +4637,13 @@
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
     </row>
-    <row r="53" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
     </row>
   </sheetData>
@@ -4659,7 +4662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:I24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -4669,24 +4672,24 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="3" customWidth="1"/>
-    <col min="2" max="9" width="14.28515625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="22.88671875" style="3" customWidth="1"/>
+    <col min="2" max="9" width="14.33203125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
@@ -4701,7 +4704,7 @@
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="5">
         <v>2010</v>
@@ -4728,7 +4731,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
@@ -4757,7 +4760,7 @@
         <v>0.98133890247958488</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
@@ -4786,7 +4789,7 @@
         <v>0.99672196284891224</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -4815,7 +4818,7 @@
         <v>0.99855594657595259</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
@@ -4844,7 +4847,7 @@
         <v>0.97546483949798302</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>6</v>
       </c>
@@ -4873,7 +4876,7 @@
         <v>0.97307334747699126</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
@@ -4902,7 +4905,7 @@
         <v>0.93737745959171181</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>8</v>
       </c>
@@ -4931,7 +4934,7 @@
         <v>0.98787420942280046</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>9</v>
       </c>
@@ -4960,7 +4963,7 @@
         <v>0.89164768580750908</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
@@ -4989,7 +4992,7 @@
         <v>0.97172433065317942</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
@@ -5018,7 +5021,7 @@
         <v>0.95602467819402315</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
@@ -5047,7 +5050,7 @@
         <v>0.95916602719209598</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
@@ -5076,7 +5079,7 @@
         <v>0.94433233778629044</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>14</v>
       </c>
@@ -5105,7 +5108,7 @@
         <v>0.96176737656521827</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>15</v>
       </c>
@@ -5134,7 +5137,7 @@
         <v>0.96608874959698632</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>16</v>
       </c>
@@ -5163,7 +5166,7 @@
         <v>0.98767087142873711</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>0</v>
       </c>
@@ -5192,10 +5195,10 @@
         <v>0.97147033180711961</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
     </row>
   </sheetData>
